--- a/Project3655_S. Lehtonen(2020).xlsx
+++ b/Project3655_S. Lehtonen(2020).xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remi/Desktop/Finished &amp; Uploaded copy 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0A81E4-2CAB-3946-B6A7-A13148C2F914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A4B9F6-DC30-3945-9704-34DB1A82D323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{DB28BA0A-FEDC-6742-909B-4F111854337A}"/>
+    <workbookView xWindow="700" yWindow="500" windowWidth="28040" windowHeight="16000" xr2:uid="{82CB97C3-56FC-3A46-9CD0-A600CD051AFF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Project3655" sheetId="1" r:id="rId1"/>
+    <sheet name="Project563" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="86">
   <si>
     <t>Charlabels</t>
   </si>
@@ -47,46 +47,241 @@
     <t>Unseen States</t>
   </si>
   <si>
-    <t>[1] 'Lemma margins'</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [2] 'Palea shape'</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [3] 'Palae length'</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [4] 'Callus shape'</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [5] 'Awn'</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [6] 'Compression of the floret'</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [7] 'Awn or awn-like tip'</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [8] 'Conspicuous crown'</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [9] 'Glumes texture'</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [10] 'Disarticulation of the awn or awnlike tip and the lemma '</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [11] 'Palea texture'</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [12] 'Lemma texture'</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [13] 'Glumes length'</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [14] 'Lemma apex'</t>
+    <t>[1] 'root pith sclerified'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2] 'continuous band of sclerenchymatous fibers in cortex of root'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [3] 'root hairs'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [4] 'root hair structure'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5] 'root anatomy'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [6] 'outer root cortex'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7] 'root mantle'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [8] 'stem symmetry'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [9] 'stem shape'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [10] 'Stem sclerenchyma'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [11] 'mature shoot stele type'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [12] 'vascular stele cycles'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [13] 'pneumathodes'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [14] 'petiole stele number'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [15] 'xylem configuration in petiole'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [16] 'Pitting pattern of metaxylem'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [17] 'scales'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [18] 'scale cells'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [19] 'Peltate laminar scales'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [20] 'mucilage canals'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [21] 'fertile-sterile leaf differentiation'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [22] 'fertile fronds'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [23] 'blade dissection'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [24] 'basal pinnae more elaborated'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [25] 'ultimate pinnule size'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [26] 'rachis wings'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [27] 'number of fronds produced at a time'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [28] 'pinnule attachment'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [29] 'pinnule base'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [30] 'pinnule apices'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [31] 'fertile pinnules'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [32] 'reflexed margin completely envelopes the sporangia'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [33] 'Lamina margins of pinnae or pinnules excluding apex'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [34] 'fibrous lamina margin'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [35] 'forking of veins in fertile frond'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [36] 'veins'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [37] 'vein density'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [38] 'false veins'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [39] 'pulvini'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [40] 'soft spines on veins'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [41] 'sutures at pinnule bases'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [42] 'Stipules'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [43] 'stomatal type'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [44] 'stomatal shape'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [45] 'stomatal guard cells'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [46] 'stomatal complex'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [47] 'idioblasts in abaxial epidermis'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [48] 'Laminar idioblast groupings'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [49] 'laminar tissue expanded between sori/sporangia'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [50] 'sporangial gouping'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [51] 'sporangial stalk width'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [52] 'sporangial development'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [53] 'annulus'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [54] 'shape of sporangia'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [55] 'sporangial aperture development'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [56] 'sporangial aperture shape'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [57] 'sporangial tips'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [58] 'sporangial tip length'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [59] 'size of sporangia'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [60] 'sporangia dorsal wall thickness'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [61] 'indument borne on sporangia'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [62] 'paraphyses'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [63] 'sporangial outer wall cells'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [64] 'number of sporangia per synangium'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [65] 'sporangial fusion in synangia'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [66] 'synangial division between valves'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [67] 'position of the synangia'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [68] 'distribution of synangia'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [69] 'symmetry of synangia'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [70] 'receptacle'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [71] 'tracheids in placental tissue'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [72] 'sporangia/synangia'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [73] 'spore output per sporangium'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [74] 'spore morphology'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [75] 'exine ornamentation'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [76] 'spore size'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [77] 'spores chlorophyllous'</t>
+  </si>
+  <si>
+    <t>Neomorphic</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
   <si>
     <t>Transformational</t>
@@ -95,22 +290,46 @@
     <t>YES</t>
   </si>
   <si>
-    <t>Neomorphic</t>
-  </si>
-  <si>
-    <t>NO</t>
+    <t>NT2;0=0-;1=11;2=12</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>O</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -121,11 +340,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow (Body)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -148,12 +372,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -178,20 +401,20 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>38099</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>25399</xdr:rowOff>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>16932</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>829732</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>15332</xdr:rowOff>
+      <xdr:rowOff>17500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFAADDCC-31DA-77EE-A39C-819DE6BFE68C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBB80EA4-810F-24C7-0D93-CE67600A931C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -207,8 +430,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3357032" y="313266"/>
-          <a:ext cx="10765367" cy="6695533"/>
+          <a:off x="8166099" y="325966"/>
+          <a:ext cx="10748433" cy="6685001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -536,10 +759,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5290ED6E-D411-4A46-9E92-EEC530ED2A46}">
-  <dimension ref="A1:C15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC19199-64C5-C04F-8A29-EA431CBC1322}">
+  <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -565,10 +788,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -576,10 +799,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -587,10 +810,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -598,32 +821,32 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
+        <v>82</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
+      <c r="B6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
+      <c r="B7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -631,32 +854,32 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
+      <c r="B9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
+      <c r="B10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -664,32 +887,32 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
+      <c r="B12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
+      <c r="B13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -697,25 +920,716 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>20</v>
+        <v>80</v>
+      </c>
+      <c r="C14" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>18</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>